--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/dynamic_field.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/dynamic_field.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>dataType</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>data_type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>value_json</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>langCode</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -471,35 +471,294 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>10001</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bloodType</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Blood Type</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{{Test,Test}}</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>[
+	{
+		"code": "101",
+		"value": "A",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "102",
+		"value": "A+",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "103",
+		"value": "A-",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "104",
+		"value": "B",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "105",
+		"value": "B+",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "106",
+		"value": "B-",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "107",
+		"value": "AB",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "108",
+		"value": "AB+",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "109",
+		"value": "AB-",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "110",
+		"value": "O",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "111",
+		"value": "O+",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "112",
+		"value": "O-",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "113",
+		"value": "Don't Know",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "114",
+		"value": "Not Applicable",
+		"langCode": "eng",
+		"active": true
+	}
+]</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="G2" t="b">
+      <c r="B3" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>maritalStatus</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Marital Status</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[
+	{
+		"code": "101",
+		"value": "Single",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "102",
+		"value": "Married",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "103",
+		"value": "Widowed",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "104",
+		"value": "Divorced",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "105",
+		"value": "Legally Separated",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "106",
+		"value": "Annulled",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "107",
+		"value": "Nullified",
+		"langCode": "eng",
+		"active": true
+	}
+]</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>registrationType</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Registration Type</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[
+	{
+		"code": "Document-based",
+		"value": "Document-based",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "Introducer-based",
+		"value": "Introducer-based",
+		"langCode": "eng",
+		"active": true
+	}
+]</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>modeOfClaim</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mode of Claim</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[
+	{
+		"code": "101",
+		"value": "Pick-up",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "102",
+		"value": "Delivery to permanent address",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "103",
+		"value": "Delivery to present address",
+		"langCode": "eng",
+		"active": true
+	}
+]</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/dynamic_field.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/dynamic_field.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,72 +434,343 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>dataType</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data_type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>value_json</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>langCode</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>10001</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>bloodType</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Blood Type</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{{Test,Test}}</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[
+	{
+		"code": "101",
+		"value": "A",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "102",
+		"value": "A+",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "103",
+		"value": "A-",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "104",
+		"value": "B",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "105",
+		"value": "B+",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "106",
+		"value": "B-",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "107",
+		"value": "AB",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "108",
+		"value": "AB+",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "109",
+		"value": "AB-",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "110",
+		"value": "O",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "111",
+		"value": "O+",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "112",
+		"value": "O-",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "113",
+		"value": "Don't Know",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "114",
+		"value": "Not Applicable",
+		"langCode": "eng",
+		"active": true
+	}
+]</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="G2" t="b">
+      <c r="C3" t="n">
+        <v>10002</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>maritalStatus</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Marital Status</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[
+	{
+		"code": "101",
+		"value": "Single",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "102",
+		"value": "Married",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "103",
+		"value": "Widowed",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "104",
+		"value": "Divorced",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "105",
+		"value": "Legally Separated",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "106",
+		"value": "Annulled",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "107",
+		"value": "Nullified",
+		"langCode": "eng",
+		"active": true
+	}
+]</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>registrationType</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Registration Type</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[
+	{
+		"code": "Document-based",
+		"value": "Document-based",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "Introducer-based",
+		"value": "Introducer-based",
+		"langCode": "eng",
+		"active": true
+	}
+]</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10004</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>modeOfClaim</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mode of Claim</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[
+	{
+		"code": "101",
+		"value": "Pick-up",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "102",
+		"value": "Delivery to permanent address",
+		"langCode": "eng",
+		"active": true
+	},
+	{
+		"code": "103",
+		"value": "Delivery to present address",
+		"langCode": "eng",
+		"active": true
+	}
+]</t>
+        </is>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
